--- a/table/lm/T25.TOU_env_lm.xlsx
+++ b/table/lm/T25.TOU_env_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>14.19471537118178</v>
+        <v>14.1947</v>
       </c>
       <c r="C2">
-        <v>0.7365165512242037</v>
+        <v>0.7365</v>
       </c>
       <c r="D2">
-        <v>19.27277173552717</v>
+        <v>19.2728</v>
       </c>
       <c r="E2">
-        <v>6.427133667372416e-017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.8767290433755198</v>
+        <v>-0.8767</v>
       </c>
       <c r="C3">
-        <v>0.8957451501437128</v>
+        <v>0.8957000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.9787706282695005</v>
+        <v>-0.9788</v>
       </c>
       <c r="E3">
-        <v>0.3367133901540065</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-3.206175898458465</v>
+        <v>-3.2062</v>
       </c>
       <c r="C4">
-        <v>1.048030831104847</v>
+        <v>1.048</v>
       </c>
       <c r="D4">
-        <v>-3.059238147677845</v>
+        <v>-3.0592</v>
       </c>
       <c r="E4">
-        <v>0.005094651895282481</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-13.11769278972443</v>
+        <v>-13.1177</v>
       </c>
       <c r="C5">
-        <v>2.87537459620563</v>
+        <v>2.8754</v>
       </c>
       <c r="D5">
-        <v>-4.56208133960516</v>
+        <v>-4.5621</v>
       </c>
       <c r="E5">
-        <v>0.0001067937203853746</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>6.096862650418569</v>
+        <v>6.0969</v>
       </c>
       <c r="C6">
-        <v>1.74730619531614</v>
+        <v>1.7473</v>
       </c>
       <c r="D6">
-        <v>3.489292641874633</v>
+        <v>3.4893</v>
       </c>
       <c r="E6">
-        <v>0.001742965909708298</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.483848290046702</v>
+        <v>5.4838</v>
       </c>
       <c r="C7">
-        <v>1.793114254632682</v>
+        <v>1.7931</v>
       </c>
       <c r="D7">
-        <v>3.058281576803405</v>
+        <v>3.0583</v>
       </c>
       <c r="E7">
-        <v>0.005106574426083698</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>10.90585001221766</v>
+        <v>10.9059</v>
       </c>
       <c r="C8">
-        <v>2.43984005182379</v>
+        <v>2.4398</v>
       </c>
       <c r="D8">
-        <v>4.469903674245161</v>
+        <v>4.4699</v>
       </c>
       <c r="E8">
-        <v>0.0001361920989483387</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
